--- a/biology/Zoologie/Dolomedes_wollemi/Dolomedes_wollemi.xlsx
+++ b/biology/Zoologie/Dolomedes_wollemi/Dolomedes_wollemi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dolomedes wollemi est une espèce d'araignées aranéomorphes de la famille des Pisauridae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dolomedes wollemi est une espèce d'araignées aranéomorphes de la famille des Pisauridae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Nouvelle-Galles du Sud en Australie[1]. Elle se rencontre vers Blackheath et le parc national Wollemi[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Nouvelle-Galles du Sud en Australie. Elle se rencontre vers Blackheath et le parc national Wollemi.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle holotype mesure 11,84 mm et la femelle paratype 21,0 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle holotype mesure 11,84 mm et la femelle paratype 21,0 mm.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce lui a été donné en référence au lieu de sa découverte, le parc national Wollemi.
 </t>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Raven &amp; Hebron, 2018 : A review of the water spider family Pisauridae in Australia and New Caledonia with descriptions of four new genera and 23 new species. Memoirs of the Queensland Museum, Nature, vol. 60, p. 233-381 (texte intégral).</t>
         </is>
